--- a/biology/Botanique/Rose_favorite_du_monde/Rose_favorite_du_monde.xlsx
+++ b/biology/Botanique/Rose_favorite_du_monde/Rose_favorite_du_monde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Fédération mondiale des sociétés de roses (World Federation of the National Rose Societies), association internationale qui regroupe  des sociétés de roses dans 37 pays du monde,  décerne tous les trois ans le titre de la « rose favorite du monde », la plus haute distinction internationale qui puisse être attribuée à une rose. 
 La première rose distinguée a été, en 1976, 'Madame Antoine Meilland', connue aux États-Unis sous le nom de 'Peace' et ailleurs sous celui de 'Gloria Dei'. Cette rose, créée par Francis Meilland avant guerre, a été baptisée le jour de la chute de Berlin, le 29 avril 1945 et l'American Rose Society en offrit une, accompagnée d'un message de paix, aux 49 délégations lors de la convention inaugurale des Nations unies à San Francisco la même année.
@@ -514,10 +526,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">« Roses modernes »
-Liste des World's Favourite Roses[1] :
-2018 : 'Knock Out' (Will Radler)[2]
-2015 : 'Cocktail' (Meilland)[3]
+          <t>« Roses modernes »</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des World's Favourite Roses :
+2018 : 'Knock Out' (Will Radler)
+2015 : 'Cocktail' (Meilland)
 2012 : 'Sally Holmes' (Holmes),
 2009 : 'Graham Thomas' (David Austin),
 2006 : 'Elina' (Dickson),
@@ -547,8 +564,43 @@
 			'Sally Holmes'
 			'Cocktail'
 			'Knock Out'
-Roses anciennes
-La Fédération mondiale des sociétés de roses établit également le Old Rose Hall of Fame, une liste de rosiers anciens reconnus comme d'importance historique[4] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Rose_favorite_du_monde</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rose_favorite_du_monde</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Roses primées</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Roses anciennes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Fédération mondiale des sociétés de roses établit également le Old Rose Hall of Fame, une liste de rosiers anciens reconnus comme d'importance historique :
 'Cécile Brünner' 1881
 'Charles de Mills' XVIIIe siècle
 'Gloire de Dijon' 1850
